--- a/modlist.xlsx
+++ b/modlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3293,6 +3293,27 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Create Chunkloading</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>create-chunkloading.pw.toml</t>
+        </is>
+      </c>
+      <c r="C131">
+        <f>HYPERLINK("https://www.curseforge.com/projects/494206","https://www.curseforge.com/projects/494206")</f>
+        <v/>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
